--- a/docs/fpga/resources.xlsx
+++ b/docs/fpga/resources.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\cariboulite\docs\fpga\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15162479-F5B1-4FA4-9040-09EF5EB4663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="214">
-  <si>
-    <t>CARIBOU LITE - FPGA RESOURCE LIST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
   <si>
     <t>No.</t>
   </si>
@@ -45,9 +48,6 @@
     <t>Pin - FPGA</t>
   </si>
   <si>
-    <t>Pin - RPI</t>
-  </si>
-  <si>
     <t>Initial State</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>LVCMOS 2.8V</t>
-  </si>
-  <si>
     <t>B24</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>IOL_5B</t>
   </si>
   <si>
-    <t>negation needed</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -312,18 +306,12 @@
     <t>IOL_3B</t>
   </si>
   <si>
-    <t>i_radio_clk</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
     <t>IOL_12B</t>
   </si>
   <si>
-    <t>normally disconnected with a jumper resistor R53</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
@@ -375,12 +363,6 @@
     <t>IOT_81</t>
   </si>
   <si>
-    <t>input (pull-high)</t>
-  </si>
-  <si>
-    <t>HIGH (PULL)</t>
-  </si>
-  <si>
     <t>o_led0</t>
   </si>
   <si>
@@ -405,15 +387,6 @@
     <t>Marked as LD1 on the PCB</t>
   </si>
   <si>
-    <t>o_ldo_2v8_en</t>
-  </si>
-  <si>
-    <t>B32</t>
-  </si>
-  <si>
-    <t>IOT_85_GBIN0</t>
-  </si>
-  <si>
     <t>o_shdn_rx_lna</t>
   </si>
   <si>
@@ -456,9 +429,6 @@
     <t>IOB_46_SCK</t>
   </si>
   <si>
-    <t>A18</t>
-  </si>
-  <si>
     <t>IOB_47_SS</t>
   </si>
   <si>
@@ -468,18 +438,6 @@
     <t>IOB_45_SDI</t>
   </si>
   <si>
-    <t>When in programming mode this is output</t>
-  </si>
-  <si>
-    <t>When in programming mode this is input</t>
-  </si>
-  <si>
-    <t>input (p/output)</t>
-  </si>
-  <si>
-    <t>output (p/input)</t>
-  </si>
-  <si>
     <t>i_smi_soe_se</t>
   </si>
   <si>
@@ -513,9 +471,6 @@
     <t>IOT_84_GBIN1</t>
   </si>
   <si>
-    <t>Can be used for RPI clock generation (GCLK) signal in</t>
-  </si>
-  <si>
     <t>A48</t>
   </si>
   <si>
@@ -528,9 +483,6 @@
     <t>IOT_92</t>
   </si>
   <si>
-    <t>i_smi_addr0</t>
-  </si>
-  <si>
     <t>A19</t>
   </si>
   <si>
@@ -627,37 +579,15 @@
     <t>intput</t>
   </si>
   <si>
-    <t>probably not accessible from firmware</t>
-  </si>
-  <si>
-    <t>Used as a debugging interface (mainly signal outputs)
-Future operational usages will follow</t>
-  </si>
-  <si>
     <t>Resistor based configuration inputs. These inputs should be configured as internal pull-ups</t>
   </si>
   <si>
-    <t>Internal pull up needed</t>
-  </si>
-  <si>
-    <t>When in programming mode this is output
-POR=&gt; Check SS
-1. if SS='1' =&gt; if NVCM programmed, use NVCM, otherwise use external flash (SPI MASTER).
-2. if SS='0', wait to be configured from external controller through SPI</t>
-  </si>
-  <si>
     <t>Mixer operation with FM modulation to form a BFSK communication scheme</t>
   </si>
   <si>
     <t>Mixer IC enable signal</t>
   </si>
   <si>
-    <t>Clock oscillator output of 125MHz (TBD)</t>
-  </si>
-  <si>
-    <t>Turn on (1) / turn off (0) the enable pin of the 2.8V voltage regulator, to save energy</t>
-  </si>
-  <si>
     <t>Shutdown (1) RX LNA</t>
   </si>
   <si>
@@ -665,24 +595,202 @@
   </si>
   <si>
     <t>o_cdone</t>
+  </si>
+  <si>
+    <t>Reset pin to FPGA</t>
+  </si>
+  <si>
+    <t>RPI - Header Pin</t>
+  </si>
+  <si>
+    <t>RPI - SoC Pin</t>
+  </si>
+  <si>
+    <t>GPIO26</t>
+  </si>
+  <si>
+    <t>GPIO27</t>
+  </si>
+  <si>
+    <t>GPIO20</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>o_smi_write_req</t>
+  </si>
+  <si>
+    <t>o_smi_read_req</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>IOR_52</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>IOT_89</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>IOT_86</t>
+  </si>
+  <si>
+    <t>General purpose I/O signals
+Used for outputing discrete signals, synchronizing</t>
+  </si>
+  <si>
+    <t>Front-end control signals</t>
+  </si>
+  <si>
+    <t>Clock oscillator output of 125MHz</t>
+  </si>
+  <si>
+    <t>LVDS output - Negated</t>
+  </si>
+  <si>
+    <t>LVDS input - Not negated</t>
+  </si>
+  <si>
+    <t>LVDS input - Negated</t>
+  </si>
+  <si>
+    <t>input (internal pullup)</t>
+  </si>
+  <si>
+    <t>Always connected to GND - never use as output</t>
+  </si>
+  <si>
+    <t>SPI clock signal input</t>
+  </si>
+  <si>
+    <t>SPI slave-select signal input</t>
+  </si>
+  <si>
+    <t>SPI data input</t>
+  </si>
+  <si>
+    <t>SPI data output</t>
+  </si>
+  <si>
+    <t>SMI 8-bit data bus</t>
+  </si>
+  <si>
+    <t>SMI write-enable input from the master (RPI)</t>
+  </si>
+  <si>
+    <t>SMI read-enable input from the master (RPI)</t>
+  </si>
+  <si>
+    <t>SMI write request - more data is needed to be pushed by the master (RPI)</t>
+  </si>
+  <si>
+    <t>SMI read request - data needs to be read out by the master (RPI)</t>
+  </si>
+  <si>
+    <t>3-bit SMI address</t>
+  </si>
+  <si>
+    <t>Push button input</t>
+  </si>
+  <si>
+    <t>GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>GPIO6</t>
+  </si>
+  <si>
+    <t>GPIO7</t>
+  </si>
+  <si>
+    <t>GPIO24</t>
+  </si>
+  <si>
+    <t>GPIO25</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>GPIO3</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
+  </si>
+  <si>
+    <t>LVCMOS 2.5V</t>
+  </si>
+  <si>
+    <t>Programming-Done pin from FPGA (1 = chip is active with frimware)</t>
+  </si>
+  <si>
+    <t>HIGH (programmed)</t>
+  </si>
+  <si>
+    <t>FPGA Chip</t>
+  </si>
+  <si>
+    <t>RPI Header 40-pin</t>
+  </si>
+  <si>
+    <t>CaribouLite - I/O Resource List (FPGA / RPI Header)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -690,13 +798,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -704,13 +812,13 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -733,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -793,13 +901,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,7 +976,31 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,1845 +1277,2116 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="19.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="83.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="83.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="2:12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>18</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="J23" s="14"/>
+      <c r="K23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>22</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>24</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>26</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="G36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>21</v>
+        <v>147</v>
+      </c>
+      <c r="G41" s="5">
+        <v>7</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G42" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G43" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="5">
+        <v>18</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="5">
-        <v>3</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
-        <v>41</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G45" s="5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G46" s="5">
         <v>31</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G47" s="5">
         <v>26</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G48" s="5">
         <v>24</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G49" s="5">
         <v>21</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D50" s="5">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G50" s="5">
         <v>19</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G51" s="5">
         <v>23</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G52" s="5">
         <v>32</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G53" s="5">
         <v>33</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G54" s="5">
         <v>8</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G55" s="5">
         <v>10</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G56" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G57" s="5">
         <v>40</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="57" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G58" s="5">
         <v>12</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G59" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
+        <v>55</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="5">
+        <v>37</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
         <v>56</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G60" s="5">
-        <v>18</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
-        <v>57</v>
-      </c>
       <c r="C61" s="4" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G61" s="5">
         <v>13</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>202</v>
+        <v>245</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>58</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>59</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
+  <mergeCells count="18">
+    <mergeCell ref="L48:L55"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/fpga/resources.xlsx
+++ b/docs/fpga/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\cariboulite\docs\fpga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15162479-F5B1-4FA4-9040-09EF5EB4663E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E9A669-7FDF-4137-8126-574A1A23FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,29 +967,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +995,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,31 +1307,31 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="2:12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1340,19 +1340,19 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="10" t="s">
         <v>192</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1399,7 +1399,7 @@
       <c r="K6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="11" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       <c r="K7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1467,7 +1467,7 @@
       <c r="K8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -1500,7 +1500,7 @@
       <c r="K9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1533,7 +1533,7 @@
       <c r="K10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1566,7 +1566,7 @@
       <c r="K11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1599,7 +1599,7 @@
       <c r="K12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1632,7 +1632,7 @@
       <c r="K13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1735,7 +1735,7 @@
       <c r="K16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="11" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="K17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -1803,7 +1803,7 @@
       <c r="K18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -1836,7 +1836,7 @@
       <c r="K19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -1869,7 +1869,7 @@
       <c r="K20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -1931,13 +1931,13 @@
       <c r="I22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1966,11 +1966,11 @@
       <c r="I23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1997,13 +1997,13 @@
       <c r="I24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2032,11 +2032,11 @@
       <c r="I25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -2063,13 +2063,13 @@
       <c r="I26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2077,16 +2077,16 @@
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -2098,11 +2098,11 @@
       <c r="I27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
@@ -2129,13 +2129,13 @@
       <c r="I28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="11" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2143,16 +2143,16 @@
       <c r="B29" s="3">
         <v>24</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="9">
         <v>3</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>88</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -2164,11 +2164,11 @@
       <c r="I29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="14"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
@@ -2195,13 +2195,13 @@
       <c r="I30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="18" t="s">
         <v>19</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2209,16 +2209,16 @@
       <c r="B31" s="3">
         <v>26</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -2230,11 +2230,11 @@
       <c r="I31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="14"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
@@ -2267,7 +2267,7 @@
       <c r="K32" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="11" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="K33" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -2335,7 +2335,7 @@
       <c r="K34" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
@@ -2368,7 +2368,7 @@
       <c r="K35" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
@@ -2576,7 +2576,7 @@
       <c r="K41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       <c r="K42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
@@ -2644,7 +2644,7 @@
       <c r="K43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="9"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
@@ -2817,7 +2817,7 @@
       <c r="K48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       <c r="K49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
@@ -2885,7 +2885,7 @@
       <c r="K50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
@@ -2918,7 +2918,7 @@
       <c r="K51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="12"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
@@ -2951,7 +2951,7 @@
       <c r="K52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
@@ -2984,7 +2984,7 @@
       <c r="K53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="12"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
@@ -3050,7 +3050,7 @@
       <c r="K55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="9"/>
+      <c r="L55" s="13"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
@@ -3369,13 +3369,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L48:L55"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="L28:L29"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="L6:L13"/>
     <mergeCell ref="L22:L23"/>
@@ -3385,6 +3378,13 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L48:L55"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L28:L29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="J30:J31"/>
   </mergeCells>
